--- a/datasets/Refugees_Healthcare.xlsx
+++ b/datasets/Refugees_Healthcare.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Briefcase\Manuscripts\Submitted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511B2BD-7690-47ED-B001-51975DDF19AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EBA76E-DA5D-473D-9547-AE1EE3C048AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00E66DE5-81F5-4973-ADF6-99C714A755E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00E66DE5-81F5-4973-ADF6-99C714A755E6}"/>
   </bookViews>
   <sheets>
     <sheet name="original studies" sheetId="1" r:id="rId1"/>
     <sheet name="included studies" sheetId="3" r:id="rId2"/>
     <sheet name="themes" sheetId="2" r:id="rId3"/>
+    <sheet name="PROSPERO" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'original studies'!$A$1:$G$312</definedName>
@@ -1442,6 +1443,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1743,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B3378-C994-46FB-931A-43F3F13DDE21}">
   <dimension ref="A1:N312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10694,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D64D9B-5902-45FA-A858-DF93DEEE3AE1}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10770,5 +10831,48 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC083FF-3D74-4CD1-8945-FE2C6767A414}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat.Document.DC" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>406400</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat.Document.DC" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>